--- a/data-folder/Données_groupe_08.xlsx
+++ b/data-folder/Données_groupe_08.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données08" sheetId="2" r:id="rId1"/>
@@ -339,7 +339,9 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -509,13 +511,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19.5</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="B17">
         <v>117</v>
       </c>
       <c r="C17">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,13 +533,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>53.400000000000006</v>
+        <v>45.33</v>
       </c>
       <c r="B19">
         <v>91</v>
       </c>
       <c r="C19">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,13 +555,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>95.789999999999992</v>
+        <v>34.910000000000004</v>
       </c>
       <c r="B21">
         <v>113</v>
       </c>
       <c r="C21">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,13 +621,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>84.92</v>
+        <v>46.82</v>
       </c>
       <c r="B27">
         <v>103</v>
       </c>
       <c r="C27">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,13 +687,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>67.290000000000006</v>
+        <v>24.490000000000002</v>
       </c>
       <c r="B33">
         <v>114</v>
       </c>
       <c r="C33">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,13 +742,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>53.849999999999994</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="B38">
         <v>97</v>
       </c>
       <c r="C38">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,13 +808,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>95.320000000000007</v>
+        <v>53.580000000000005</v>
       </c>
       <c r="B44">
         <v>103</v>
       </c>
       <c r="C44">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,13 +830,13 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>89.62</v>
+        <v>29.56</v>
       </c>
       <c r="B46">
         <v>114</v>
       </c>
       <c r="C46">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,13 +852,13 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>41.949999999999996</v>
+        <v>25.75</v>
       </c>
       <c r="B48">
         <v>103</v>
       </c>
       <c r="C48">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
